--- a/Peaks-dataset-article/redes-ensemble/Teste04/content/results/metrics_4_9.xlsx
+++ b/Peaks-dataset-article/redes-ensemble/Teste04/content/results/metrics_4_9.xlsx
@@ -518,1376 +518,1376 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>model_4_9_3</t>
+          <t>model_4_9_4</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.9612845130416634</v>
+        <v>0.988925917807238</v>
       </c>
       <c r="C2" t="n">
-        <v>0.7371537501382107</v>
+        <v>0.7533257402235677</v>
       </c>
       <c r="D2" t="n">
-        <v>0.9624081805857356</v>
+        <v>0.8894972400560772</v>
       </c>
       <c r="E2" t="n">
-        <v>0.7759380271035692</v>
+        <v>0.9123770234552931</v>
       </c>
       <c r="F2" t="n">
-        <v>0.9407234357275921</v>
+        <v>0.9254368716144308</v>
       </c>
       <c r="G2" t="n">
-        <v>0.2588906395588227</v>
+        <v>0.07405243861445894</v>
       </c>
       <c r="H2" t="n">
-        <v>1.757654083121479</v>
+        <v>1.649511910955529</v>
       </c>
       <c r="I2" t="n">
-        <v>0.0786811500205522</v>
+        <v>0.3526590232456739</v>
       </c>
       <c r="J2" t="n">
-        <v>0.3363230335706197</v>
+        <v>0.110168758150909</v>
       </c>
       <c r="K2" t="n">
-        <v>0.207502091795586</v>
+        <v>0.2314138957377501</v>
       </c>
       <c r="L2" t="n">
-        <v>2.200268530157959</v>
+        <v>0.1420219615855468</v>
       </c>
       <c r="M2" t="n">
-        <v>0.508812971099227</v>
+        <v>0.2721257771958749</v>
       </c>
       <c r="N2" t="n">
-        <v>1.007941638350428</v>
+        <v>1.015633998389782</v>
       </c>
       <c r="O2" t="n">
-        <v>0.5304741926669732</v>
+        <v>0.2837107349091197</v>
       </c>
       <c r="P2" t="n">
-        <v>284.7026990950742</v>
+        <v>87.20596361362496</v>
       </c>
       <c r="Q2" t="n">
-        <v>456.5641904014905</v>
+        <v>137.1798724332212</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>model_4_9_4</t>
+          <t>model_4_9_7</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.963093207463399</v>
+        <v>0.9889258738743407</v>
       </c>
       <c r="C3" t="n">
-        <v>0.7370521269736551</v>
+        <v>0.7533257377200457</v>
       </c>
       <c r="D3" t="n">
-        <v>0.947607937263353</v>
+        <v>0.8894970436552364</v>
       </c>
       <c r="E3" t="n">
-        <v>0.6930646499543344</v>
+        <v>0.912376031314468</v>
       </c>
       <c r="F3" t="n">
-        <v>0.9185309920466492</v>
+        <v>0.9254365712953556</v>
       </c>
       <c r="G3" t="n">
-        <v>0.2467958916324045</v>
+        <v>0.07405273239394573</v>
       </c>
       <c r="H3" t="n">
-        <v>1.758333637690794</v>
+        <v>1.649511927696592</v>
       </c>
       <c r="I3" t="n">
-        <v>0.1096586388288536</v>
+        <v>0.3526596500402329</v>
       </c>
       <c r="J3" t="n">
-        <v>0.4607181964122691</v>
+        <v>0.1101700055739814</v>
       </c>
       <c r="K3" t="n">
-        <v>0.2851884176205614</v>
+        <v>0.2314148278071071</v>
       </c>
       <c r="L3" t="n">
-        <v>2.097632220723899</v>
+        <v>0.1420204212047241</v>
       </c>
       <c r="M3" t="n">
-        <v>0.4967855590014715</v>
+        <v>0.272126316981555</v>
       </c>
       <c r="N3" t="n">
-        <v>1.007570624110072</v>
+        <v>1.015634060412695</v>
       </c>
       <c r="O3" t="n">
-        <v>0.5179347487360408</v>
+        <v>0.2837112976745936</v>
       </c>
       <c r="P3" t="n">
-        <v>284.7983872672713</v>
+        <v>87.2059556792771</v>
       </c>
       <c r="Q3" t="n">
-        <v>456.6598785736875</v>
+        <v>137.1798644988733</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>model_4_9_2</t>
+          <t>model_4_9_6</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.9579632719911271</v>
+        <v>0.9889258916380317</v>
       </c>
       <c r="C4" t="n">
-        <v>0.7363884084971105</v>
+        <v>0.7533257359471949</v>
       </c>
       <c r="D4" t="n">
-        <v>0.9761714710519054</v>
+        <v>0.8894970827732871</v>
       </c>
       <c r="E4" t="n">
-        <v>0.8552137008180204</v>
+        <v>0.9123761629197811</v>
       </c>
       <c r="F4" t="n">
-        <v>0.9618345383249226</v>
+        <v>0.9254366180651975</v>
       </c>
       <c r="G4" t="n">
-        <v>0.2810997937566679</v>
+        <v>0.07405261360806219</v>
       </c>
       <c r="H4" t="n">
-        <v>1.76277192619959</v>
+        <v>1.649511939551654</v>
       </c>
       <c r="I4" t="n">
-        <v>0.04987404414436735</v>
+        <v>0.3526595251987037</v>
       </c>
       <c r="J4" t="n">
-        <v>0.2173281201217274</v>
+        <v>0.110169840106036</v>
       </c>
       <c r="K4" t="n">
-        <v>0.1336010821330474</v>
+        <v>0.2314146826523699</v>
       </c>
       <c r="L4" t="n">
-        <v>2.312201898815426</v>
+        <v>0.1420195739566241</v>
       </c>
       <c r="M4" t="n">
-        <v>0.530188451172475</v>
+        <v>0.2721260987264217</v>
       </c>
       <c r="N4" t="n">
-        <v>1.008622918565923</v>
+        <v>1.015634035334543</v>
       </c>
       <c r="O4" t="n">
-        <v>0.5527596711802831</v>
+        <v>0.2837110701278874</v>
       </c>
       <c r="P4" t="n">
-        <v>284.5380910695417</v>
+        <v>87.20595888742284</v>
       </c>
       <c r="Q4" t="n">
-        <v>456.3995823759579</v>
+        <v>137.1798677070191</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>model_4_9_5</t>
+          <t>model_4_9_8</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.9638118374272149</v>
+        <v>0.9889258383579804</v>
       </c>
       <c r="C5" t="n">
-        <v>0.7363552345648141</v>
+        <v>0.7533257354299128</v>
       </c>
       <c r="D5" t="n">
-        <v>0.9324046958532599</v>
+        <v>0.8894966814036001</v>
       </c>
       <c r="E5" t="n">
-        <v>0.6101568363339711</v>
+        <v>0.9123760978541944</v>
       </c>
       <c r="F5" t="n">
-        <v>0.8962106864139653</v>
+        <v>0.9254363960874339</v>
       </c>
       <c r="G5" t="n">
-        <v>0.2419904097553808</v>
+        <v>0.07405296989201021</v>
       </c>
       <c r="H5" t="n">
-        <v>1.762993760437608</v>
+        <v>1.649511943010722</v>
       </c>
       <c r="I5" t="n">
-        <v>0.1414796184149679</v>
+        <v>0.3526608061317938</v>
       </c>
       <c r="J5" t="n">
-        <v>0.5851650493211158</v>
+        <v>0.1101699219132875</v>
       </c>
       <c r="K5" t="n">
-        <v>0.3633223338680419</v>
+        <v>0.2314153715818737</v>
       </c>
       <c r="L5" t="n">
-        <v>2.003757466518481</v>
+        <v>0.142021076415097</v>
       </c>
       <c r="M5" t="n">
-        <v>0.4919252074811585</v>
+        <v>0.2721267533558768</v>
       </c>
       <c r="N5" t="n">
-        <v>1.007423212835443</v>
+        <v>1.015634110553439</v>
       </c>
       <c r="O5" t="n">
-        <v>0.5128674819891934</v>
+        <v>0.2837117526262737</v>
       </c>
       <c r="P5" t="n">
-        <v>284.8377143654414</v>
+        <v>87.2059492649916</v>
       </c>
       <c r="Q5" t="n">
-        <v>456.6992056718577</v>
+        <v>137.1798580845878</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>model_4_9_6</t>
+          <t>model_4_9_3</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.9637546604947385</v>
+        <v>0.9889259241155067</v>
       </c>
       <c r="C6" t="n">
-        <v>0.7352607623066214</v>
+        <v>0.7533257249664096</v>
       </c>
       <c r="D6" t="n">
-        <v>0.9172458060481284</v>
+        <v>0.8894971870266064</v>
       </c>
       <c r="E6" t="n">
-        <v>0.5295108644466235</v>
+        <v>0.9123769395489681</v>
       </c>
       <c r="F6" t="n">
-        <v>0.8743885723965827</v>
+        <v>0.9254368289775509</v>
       </c>
       <c r="G6" t="n">
-        <v>0.2423727521661268</v>
+        <v>0.07405239643103699</v>
       </c>
       <c r="H6" t="n">
-        <v>1.770312501467723</v>
+        <v>1.649512012980216</v>
       </c>
       <c r="I6" t="n">
-        <v>0.1732077683552176</v>
+        <v>0.3526591924841742</v>
       </c>
       <c r="J6" t="n">
-        <v>0.7062168170967255</v>
+        <v>0.1101688636467047</v>
       </c>
       <c r="K6" t="n">
-        <v>0.4397122927259716</v>
+        <v>0.2314140280654394</v>
       </c>
       <c r="L6" t="n">
-        <v>1.918062464084313</v>
+        <v>0.1420196023152633</v>
       </c>
       <c r="M6" t="n">
-        <v>0.4923136725362467</v>
+        <v>0.2721256996886494</v>
       </c>
       <c r="N6" t="n">
-        <v>1.007434941436977</v>
+        <v>1.015633989483991</v>
       </c>
       <c r="O6" t="n">
-        <v>0.5132724848059104</v>
+        <v>0.2837106541022511</v>
       </c>
       <c r="P6" t="n">
-        <v>284.8345568793217</v>
+        <v>87.20596475291043</v>
       </c>
       <c r="Q6" t="n">
-        <v>456.696048185738</v>
+        <v>137.1798735725067</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>model_4_9_1</t>
+          <t>model_4_9_5</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.9525559852173131</v>
+        <v>0.9889259026086195</v>
       </c>
       <c r="C7" t="n">
-        <v>0.7343793600897257</v>
+        <v>0.7533257150940987</v>
       </c>
       <c r="D7" t="n">
-        <v>0.9879968701041861</v>
+        <v>0.8894972418448723</v>
       </c>
       <c r="E7" t="n">
-        <v>0.9254196031739275</v>
+        <v>0.9123766480073106</v>
       </c>
       <c r="F7" t="n">
-        <v>0.9804217627029433</v>
+        <v>0.9254367981086336</v>
       </c>
       <c r="G7" t="n">
-        <v>0.317258345311428</v>
+        <v>0.07405254024769134</v>
       </c>
       <c r="H7" t="n">
-        <v>1.77620644215059</v>
+        <v>1.649512078996404</v>
       </c>
       <c r="I7" t="n">
-        <v>0.02512302087965288</v>
+        <v>0.3526590175369049</v>
       </c>
       <c r="J7" t="n">
-        <v>0.1119471768511098</v>
+        <v>0.1101692302033274</v>
       </c>
       <c r="K7" t="n">
-        <v>0.06853509886538137</v>
+        <v>0.2314141238701161</v>
       </c>
       <c r="L7" t="n">
-        <v>2.433848077842775</v>
+        <v>0.1420195452214952</v>
       </c>
       <c r="M7" t="n">
-        <v>0.5632569088004408</v>
+        <v>0.2721259639352543</v>
       </c>
       <c r="N7" t="n">
-        <v>1.009732105596449</v>
+        <v>1.015634019846655</v>
       </c>
       <c r="O7" t="n">
-        <v>0.5872359215106155</v>
+        <v>0.2837109295983811</v>
       </c>
       <c r="P7" t="n">
-        <v>284.2960777351509</v>
+        <v>87.20596086872784</v>
       </c>
       <c r="Q7" t="n">
-        <v>456.1575690415672</v>
+        <v>137.1798696883241</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>model_4_9_7</t>
+          <t>model_4_9_2</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.9631559441403705</v>
+        <v>0.9889259748130611</v>
       </c>
       <c r="C8" t="n">
-        <v>0.7339128514185784</v>
+        <v>0.7533257144897229</v>
       </c>
       <c r="D8" t="n">
-        <v>0.9024431453109109</v>
+        <v>0.8894975836123471</v>
       </c>
       <c r="E8" t="n">
-        <v>0.452554913304411</v>
+        <v>0.9123780638903271</v>
       </c>
       <c r="F8" t="n">
-        <v>0.8534640852757621</v>
+        <v>0.9254372589989504</v>
       </c>
       <c r="G8" t="n">
-        <v>0.2463763711846197</v>
+        <v>0.07405205741625767</v>
       </c>
       <c r="H8" t="n">
-        <v>1.779325987782626</v>
+        <v>1.649512083037868</v>
       </c>
       <c r="I8" t="n">
-        <v>0.2041903169074275</v>
+        <v>0.3526579268185926</v>
       </c>
       <c r="J8" t="n">
-        <v>0.8217297647195908</v>
+        <v>0.110167450007313</v>
       </c>
       <c r="K8" t="n">
-        <v>0.5129600408135092</v>
+        <v>0.2314126934523474</v>
       </c>
       <c r="L8" t="n">
-        <v>1.839938301815553</v>
+        <v>0.142021104207871</v>
       </c>
       <c r="M8" t="n">
-        <v>0.4963631444664478</v>
+        <v>0.2721250767868659</v>
       </c>
       <c r="N8" t="n">
-        <v>1.007557755048129</v>
+        <v>1.015633917910973</v>
       </c>
       <c r="O8" t="n">
-        <v>0.5174943511397425</v>
+        <v>0.2837100046822491</v>
       </c>
       <c r="P8" t="n">
-        <v>284.8017898961749</v>
+        <v>87.20597390900996</v>
       </c>
       <c r="Q8" t="n">
-        <v>456.6632812025911</v>
+        <v>137.1798827286062</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>model_4_9_8</t>
+          <t>model_4_9_9</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.9621902266746862</v>
+        <v>0.9889258241447418</v>
       </c>
       <c r="C9" t="n">
-        <v>0.7324165639823149</v>
+        <v>0.7533257140572006</v>
       </c>
       <c r="D9" t="n">
-        <v>0.8882084210542128</v>
+        <v>0.8894966301148006</v>
       </c>
       <c r="E9" t="n">
-        <v>0.3801195018068128</v>
+        <v>0.9123751294896341</v>
       </c>
       <c r="F9" t="n">
-        <v>0.8336785772280192</v>
+        <v>0.9254361760050988</v>
       </c>
       <c r="G9" t="n">
-        <v>0.2528341283243712</v>
+        <v>0.07405306493600268</v>
       </c>
       <c r="H9" t="n">
-        <v>1.78933166875869</v>
+        <v>1.649512085930147</v>
       </c>
       <c r="I9" t="n">
-        <v>0.2339841521671666</v>
+        <v>0.3526609698151074</v>
       </c>
       <c r="J9" t="n">
-        <v>0.9304572610362872</v>
+        <v>0.1101711394423563</v>
       </c>
       <c r="K9" t="n">
-        <v>0.582220706601727</v>
+        <v>0.2314160546287319</v>
       </c>
       <c r="L9" t="n">
-        <v>1.768812390271409</v>
+        <v>0.1420188205538815</v>
       </c>
       <c r="M9" t="n">
-        <v>0.5028261412500062</v>
+        <v>0.2721269279876629</v>
       </c>
       <c r="N9" t="n">
-        <v>1.007755850938526</v>
+        <v>1.015634130619188</v>
       </c>
       <c r="O9" t="n">
-        <v>0.5242324910766247</v>
+        <v>0.2837119346924966</v>
       </c>
       <c r="P9" t="n">
-        <v>284.7500432490763</v>
+        <v>87.20594669807411</v>
       </c>
       <c r="Q9" t="n">
-        <v>456.6115345554926</v>
+        <v>137.1798555176703</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>model_4_9_9</t>
+          <t>model_4_9_12</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.9609873544490424</v>
+        <v>0.9889257497720851</v>
       </c>
       <c r="C10" t="n">
-        <v>0.7308481181292407</v>
+        <v>0.7533257123154451</v>
       </c>
       <c r="D10" t="n">
-        <v>0.8746786632272453</v>
+        <v>0.8894961698313538</v>
       </c>
       <c r="E10" t="n">
-        <v>0.3126281290298905</v>
+        <v>0.9123742876981742</v>
       </c>
       <c r="F10" t="n">
-        <v>0.815163811232352</v>
+        <v>0.9254357672183836</v>
       </c>
       <c r="G10" t="n">
-        <v>0.2608777404359688</v>
+        <v>0.07405356226630026</v>
       </c>
       <c r="H10" t="n">
-        <v>1.799819873400227</v>
+        <v>1.649512097577274</v>
       </c>
       <c r="I10" t="n">
-        <v>0.2623024650850412</v>
+        <v>0.3526624387658456</v>
       </c>
       <c r="J10" t="n">
-        <v>1.031763622569899</v>
+        <v>0.1101721978305031</v>
       </c>
       <c r="K10" t="n">
-        <v>0.64703304382747</v>
+        <v>0.2314173233379225</v>
       </c>
       <c r="L10" t="n">
-        <v>1.704131586537849</v>
+        <v>0.1420175969982094</v>
       </c>
       <c r="M10" t="n">
-        <v>0.5107619214819844</v>
+        <v>0.2721278417698201</v>
       </c>
       <c r="N10" t="n">
-        <v>1.008002593959171</v>
+        <v>1.01563423561588</v>
       </c>
       <c r="O10" t="n">
-        <v>0.5325061139024081</v>
+        <v>0.283712887376252</v>
       </c>
       <c r="P10" t="n">
-        <v>284.6874068177085</v>
+        <v>87.20593326639164</v>
       </c>
       <c r="Q10" t="n">
-        <v>456.5488981241248</v>
+        <v>137.1798420859879</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>model_4_9_0</t>
+          <t>model_4_9_22</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.9442711230577653</v>
+        <v>0.9889257497720851</v>
       </c>
       <c r="C11" t="n">
-        <v>0.7305959996580877</v>
+        <v>0.7533257123154451</v>
       </c>
       <c r="D11" t="n">
-        <v>0.9965711178110234</v>
+        <v>0.8894961698313538</v>
       </c>
       <c r="E11" t="n">
-        <v>0.9781188944055031</v>
+        <v>0.9123742876981742</v>
       </c>
       <c r="F11" t="n">
-        <v>0.9942836669704381</v>
+        <v>0.9254357672183836</v>
       </c>
       <c r="G11" t="n">
-        <v>0.3726592567206066</v>
+        <v>0.07405356226630026</v>
       </c>
       <c r="H11" t="n">
-        <v>1.801505790777726</v>
+        <v>1.649512097577274</v>
       </c>
       <c r="I11" t="n">
-        <v>0.007176784686598586</v>
+        <v>0.3526624387658456</v>
       </c>
       <c r="J11" t="n">
-        <v>0.03284412663286627</v>
+        <v>0.1101721978305031</v>
       </c>
       <c r="K11" t="n">
-        <v>0.02001045565973243</v>
+        <v>0.2314173233379225</v>
       </c>
       <c r="L11" t="n">
-        <v>2.565389350340901</v>
+        <v>0.1420175969982094</v>
       </c>
       <c r="M11" t="n">
-        <v>0.61045823503382</v>
+        <v>0.2721278417698201</v>
       </c>
       <c r="N11" t="n">
-        <v>1.011431564500971</v>
+        <v>1.01563423561588</v>
       </c>
       <c r="O11" t="n">
-        <v>0.6364467059219651</v>
+        <v>0.283712887376252</v>
       </c>
       <c r="P11" t="n">
-        <v>283.9741815954181</v>
+        <v>87.20593326639164</v>
       </c>
       <c r="Q11" t="n">
-        <v>455.8356729018344</v>
+        <v>137.1798420859879</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>model_4_9_10</t>
+          <t>model_4_9_21</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.9596429960858739</v>
+        <v>0.9889257497720851</v>
       </c>
       <c r="C12" t="n">
-        <v>0.7292621714818445</v>
+        <v>0.7533257123154451</v>
       </c>
       <c r="D12" t="n">
-        <v>0.861935520445013</v>
+        <v>0.8894961698313538</v>
       </c>
       <c r="E12" t="n">
-        <v>0.2502176800279121</v>
+        <v>0.9123742876981742</v>
       </c>
       <c r="F12" t="n">
-        <v>0.7979735444327005</v>
+        <v>0.9254357672183836</v>
       </c>
       <c r="G12" t="n">
-        <v>0.2698674710006772</v>
+        <v>0.07405356226630026</v>
       </c>
       <c r="H12" t="n">
-        <v>1.810425105933978</v>
+        <v>1.649512097577274</v>
       </c>
       <c r="I12" t="n">
-        <v>0.2889743619127237</v>
+        <v>0.3526624387658456</v>
       </c>
       <c r="J12" t="n">
-        <v>1.125443381180933</v>
+        <v>0.1101721978305031</v>
       </c>
       <c r="K12" t="n">
-        <v>0.7072088715468284</v>
+        <v>0.2314173233379225</v>
       </c>
       <c r="L12" t="n">
-        <v>1.645363551576326</v>
+        <v>0.1420175969982094</v>
       </c>
       <c r="M12" t="n">
-        <v>0.5194877005287779</v>
+        <v>0.2721278417698201</v>
       </c>
       <c r="N12" t="n">
-        <v>1.008278359777257</v>
+        <v>1.01563423561588</v>
       </c>
       <c r="O12" t="n">
-        <v>0.5416033674280762</v>
+        <v>0.283712887376252</v>
       </c>
       <c r="P12" t="n">
-        <v>284.6196485772696</v>
+        <v>87.20593326639164</v>
       </c>
       <c r="Q12" t="n">
-        <v>456.4811398836858</v>
+        <v>137.1798420859879</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>model_4_9_11</t>
+          <t>model_4_9_20</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.9582274366610491</v>
+        <v>0.9889257497720851</v>
       </c>
       <c r="C13" t="n">
-        <v>0.7276972895745016</v>
+        <v>0.7533257123154451</v>
       </c>
       <c r="D13" t="n">
-        <v>0.8500202410472365</v>
+        <v>0.8894961698313538</v>
       </c>
       <c r="E13" t="n">
-        <v>0.1928412114596447</v>
+        <v>0.9123742876981742</v>
       </c>
       <c r="F13" t="n">
-        <v>0.7821100437670491</v>
+        <v>0.9254357672183836</v>
       </c>
       <c r="G13" t="n">
-        <v>0.2793333233925326</v>
+        <v>0.07405356226630026</v>
       </c>
       <c r="H13" t="n">
-        <v>1.820889478453998</v>
+        <v>1.649512097577274</v>
       </c>
       <c r="I13" t="n">
-        <v>0.313913508260014</v>
+        <v>0.3526624387658456</v>
       </c>
       <c r="J13" t="n">
-        <v>1.211567000084212</v>
+        <v>0.1101721978305031</v>
       </c>
       <c r="K13" t="n">
-        <v>0.7627402541721129</v>
+        <v>0.2314173233379225</v>
       </c>
       <c r="L13" t="n">
-        <v>1.59201819219724</v>
+        <v>0.1420175969982094</v>
       </c>
       <c r="M13" t="n">
-        <v>0.5285199366083863</v>
+        <v>0.2721278417698201</v>
       </c>
       <c r="N13" t="n">
-        <v>1.008568730941323</v>
+        <v>1.01563423561588</v>
       </c>
       <c r="O13" t="n">
-        <v>0.5510201244968997</v>
+        <v>0.283712887376252</v>
       </c>
       <c r="P13" t="n">
-        <v>284.5506990055115</v>
+        <v>87.20593326639164</v>
       </c>
       <c r="Q13" t="n">
-        <v>456.4121903119278</v>
+        <v>137.1798420859879</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>model_4_9_12</t>
+          <t>model_4_9_19</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.956791432499682</v>
+        <v>0.9889257497720851</v>
       </c>
       <c r="C14" t="n">
-        <v>0.7261802066950834</v>
+        <v>0.7533257123154451</v>
       </c>
       <c r="D14" t="n">
-        <v>0.8389436289630563</v>
+        <v>0.8894961698313538</v>
       </c>
       <c r="E14" t="n">
-        <v>0.1403309202220999</v>
+        <v>0.9123742876981742</v>
       </c>
       <c r="F14" t="n">
-        <v>0.7675405626327331</v>
+        <v>0.9254357672183836</v>
       </c>
       <c r="G14" t="n">
-        <v>0.2889358898317859</v>
+        <v>0.07405356226630026</v>
       </c>
       <c r="H14" t="n">
-        <v>1.831034218654192</v>
+        <v>1.649512097577274</v>
       </c>
       <c r="I14" t="n">
-        <v>0.3370972910801703</v>
+        <v>0.3526624387658456</v>
       </c>
       <c r="J14" t="n">
-        <v>1.29038635623998</v>
+        <v>0.1101721978305031</v>
       </c>
       <c r="K14" t="n">
-        <v>0.8137418236600753</v>
+        <v>0.2314173233379225</v>
       </c>
       <c r="L14" t="n">
-        <v>1.543631731504101</v>
+        <v>0.1420175969982094</v>
       </c>
       <c r="M14" t="n">
-        <v>0.5375275712294076</v>
+        <v>0.2721278417698201</v>
       </c>
       <c r="N14" t="n">
-        <v>1.008863295897501</v>
+        <v>1.01563423561588</v>
       </c>
       <c r="O14" t="n">
-        <v>0.5604112327721122</v>
+        <v>0.283712887376252</v>
       </c>
       <c r="P14" t="n">
-        <v>284.4831008999414</v>
+        <v>87.20593326639164</v>
       </c>
       <c r="Q14" t="n">
-        <v>456.3445922063577</v>
+        <v>137.1798420859879</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>model_4_9_13</t>
+          <t>model_4_9_18</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.9553711487919445</v>
+        <v>0.9889257497720851</v>
       </c>
       <c r="C15" t="n">
-        <v>0.7247286873751384</v>
+        <v>0.7533257123154451</v>
       </c>
       <c r="D15" t="n">
-        <v>0.8286955747569372</v>
+        <v>0.8894961698313538</v>
       </c>
       <c r="E15" t="n">
-        <v>0.09244074700847837</v>
+        <v>0.9123742876981742</v>
       </c>
       <c r="F15" t="n">
-        <v>0.7542093098795983</v>
+        <v>0.9254357672183836</v>
       </c>
       <c r="G15" t="n">
-        <v>0.2984333335252317</v>
+        <v>0.07405356226630026</v>
       </c>
       <c r="H15" t="n">
-        <v>1.840740535030297</v>
+        <v>1.649512097577274</v>
       </c>
       <c r="I15" t="n">
-        <v>0.3585468698176241</v>
+        <v>0.3526624387658456</v>
       </c>
       <c r="J15" t="n">
-        <v>1.36227079127025</v>
+        <v>0.1101721978305031</v>
       </c>
       <c r="K15" t="n">
-        <v>0.8604088811470554</v>
+        <v>0.2314173233379225</v>
       </c>
       <c r="L15" t="n">
-        <v>1.49977229129827</v>
+        <v>0.1420175969982094</v>
       </c>
       <c r="M15" t="n">
-        <v>0.5462905211746143</v>
+        <v>0.2721278417698201</v>
       </c>
       <c r="N15" t="n">
-        <v>1.009154636145242</v>
+        <v>1.01563423561588</v>
       </c>
       <c r="O15" t="n">
-        <v>0.5695472396382935</v>
+        <v>0.283712887376252</v>
       </c>
       <c r="P15" t="n">
-        <v>284.4184174187342</v>
+        <v>87.20593326639164</v>
       </c>
       <c r="Q15" t="n">
-        <v>456.2799087251505</v>
+        <v>137.1798420859879</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>model_4_9_14</t>
+          <t>model_4_9_17</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.9539916612639049</v>
+        <v>0.9889257497720851</v>
       </c>
       <c r="C16" t="n">
-        <v>0.7233539053167281</v>
+        <v>0.7533257123154451</v>
       </c>
       <c r="D16" t="n">
-        <v>0.8192510396962837</v>
+        <v>0.8894961698313538</v>
       </c>
       <c r="E16" t="n">
-        <v>0.04888396140972007</v>
+        <v>0.9123742876981742</v>
       </c>
       <c r="F16" t="n">
-        <v>0.7420473916374235</v>
+        <v>0.9254357672183836</v>
       </c>
       <c r="G16" t="n">
-        <v>0.3076579729771883</v>
+        <v>0.07405356226630026</v>
       </c>
       <c r="H16" t="n">
-        <v>1.849933708985176</v>
+        <v>1.649512097577274</v>
       </c>
       <c r="I16" t="n">
-        <v>0.3783146515201419</v>
+        <v>0.3526624387658456</v>
       </c>
       <c r="J16" t="n">
-        <v>1.427650695212856</v>
+        <v>0.1101721978305031</v>
       </c>
       <c r="K16" t="n">
-        <v>0.9029825948309447</v>
+        <v>0.2314173233379225</v>
       </c>
       <c r="L16" t="n">
-        <v>1.460049260521492</v>
+        <v>0.1420175969982094</v>
       </c>
       <c r="M16" t="n">
-        <v>0.5546692464678282</v>
+        <v>0.2721278417698201</v>
       </c>
       <c r="N16" t="n">
-        <v>1.009437607945866</v>
+        <v>1.01563423561588</v>
       </c>
       <c r="O16" t="n">
-        <v>0.5782826646135919</v>
+        <v>0.283712887376252</v>
       </c>
       <c r="P16" t="n">
-        <v>284.3575331807843</v>
+        <v>87.20593326639164</v>
       </c>
       <c r="Q16" t="n">
-        <v>456.2190244872006</v>
+        <v>137.1798420859879</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t>model_4_9_15</t>
+          <t>model_4_9_16</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0.9526700059042772</v>
+        <v>0.9889257497720851</v>
       </c>
       <c r="C17" t="n">
-        <v>0.7220621553991271</v>
+        <v>0.7533257123154451</v>
       </c>
       <c r="D17" t="n">
-        <v>0.8105766230031352</v>
+        <v>0.8894961698313538</v>
       </c>
       <c r="E17" t="n">
-        <v>0.009354906326604517</v>
+        <v>0.9123742876981742</v>
       </c>
       <c r="F17" t="n">
-        <v>0.7309791798462375</v>
+        <v>0.9254357672183836</v>
       </c>
       <c r="G17" t="n">
-        <v>0.3164958884526822</v>
+        <v>0.07405356226630026</v>
       </c>
       <c r="H17" t="n">
-        <v>1.858571646632134</v>
+        <v>1.649512097577274</v>
       </c>
       <c r="I17" t="n">
-        <v>0.3964705453238724</v>
+        <v>0.3526624387658456</v>
       </c>
       <c r="J17" t="n">
-        <v>1.486984867575423</v>
+        <v>0.1101721978305031</v>
       </c>
       <c r="K17" t="n">
-        <v>0.9417277064496477</v>
+        <v>0.2314173233379225</v>
       </c>
       <c r="L17" t="n">
-        <v>1.424088200041042</v>
+        <v>0.1420175969982094</v>
       </c>
       <c r="M17" t="n">
-        <v>0.5625796729821316</v>
+        <v>0.2721278417698201</v>
       </c>
       <c r="N17" t="n">
-        <v>1.009708716737584</v>
+        <v>1.01563423561588</v>
       </c>
       <c r="O17" t="n">
-        <v>0.5865298543614496</v>
+        <v>0.283712887376252</v>
       </c>
       <c r="P17" t="n">
-        <v>284.3008900563062</v>
+        <v>87.20593326639164</v>
       </c>
       <c r="Q17" t="n">
-        <v>456.1623813627225</v>
+        <v>137.1798420859879</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
         <is>
-          <t>model_4_9_16</t>
+          <t>model_4_9_24</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0.9514168046114677</v>
+        <v>0.9889257497720851</v>
       </c>
       <c r="C18" t="n">
-        <v>0.7208561856570088</v>
+        <v>0.7533257123154451</v>
       </c>
       <c r="D18" t="n">
-        <v>0.8026305766313481</v>
+        <v>0.8894961698313538</v>
       </c>
       <c r="E18" t="n">
-        <v>-0.02645831118971986</v>
+        <v>0.9123742876981742</v>
       </c>
       <c r="F18" t="n">
-        <v>0.7209254064610443</v>
+        <v>0.9254357672183836</v>
       </c>
       <c r="G18" t="n">
-        <v>0.3248760512681608</v>
+        <v>0.07405356226630026</v>
       </c>
       <c r="H18" t="n">
-        <v>1.86663597185066</v>
+        <v>1.649512097577274</v>
       </c>
       <c r="I18" t="n">
-        <v>0.4131019315241266</v>
+        <v>0.3526624387658456</v>
       </c>
       <c r="J18" t="n">
-        <v>1.540741468043197</v>
+        <v>0.1101721978305031</v>
       </c>
       <c r="K18" t="n">
-        <v>0.9769216997836619</v>
+        <v>0.2314173233379225</v>
       </c>
       <c r="L18" t="n">
-        <v>1.391554183551013</v>
+        <v>0.1420175969982094</v>
       </c>
       <c r="M18" t="n">
-        <v>0.5699789919533533</v>
+        <v>0.2721278417698201</v>
       </c>
       <c r="N18" t="n">
-        <v>1.009965783669442</v>
+        <v>1.01563423561588</v>
       </c>
       <c r="O18" t="n">
-        <v>0.5942441776599781</v>
+        <v>0.283712887376252</v>
       </c>
       <c r="P18" t="n">
-        <v>284.2486231002197</v>
+        <v>87.20593326639164</v>
       </c>
       <c r="Q18" t="n">
-        <v>456.110114406636</v>
+        <v>137.1798420859879</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>model_4_9_17</t>
+          <t>model_4_9_14</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0.9502383617428896</v>
+        <v>0.9889257497720851</v>
       </c>
       <c r="C19" t="n">
-        <v>0.7197361931214901</v>
+        <v>0.7533257123154451</v>
       </c>
       <c r="D19" t="n">
-        <v>0.7953682575158051</v>
+        <v>0.8894961698313538</v>
       </c>
       <c r="E19" t="n">
-        <v>-0.05885793176918597</v>
+        <v>0.9123742876981742</v>
       </c>
       <c r="F19" t="n">
-        <v>0.7118079193615034</v>
+        <v>0.9254357672183836</v>
       </c>
       <c r="G19" t="n">
-        <v>0.3327563041565733</v>
+        <v>0.07405356226630026</v>
       </c>
       <c r="H19" t="n">
-        <v>1.874125367092765</v>
+        <v>1.649512097577274</v>
       </c>
       <c r="I19" t="n">
-        <v>0.4283022498042879</v>
+        <v>0.3526624387658456</v>
       </c>
       <c r="J19" t="n">
-        <v>1.589374167911728</v>
+        <v>0.1101721978305031</v>
       </c>
       <c r="K19" t="n">
-        <v>1.008838152234916</v>
+        <v>0.2314173233379225</v>
       </c>
       <c r="L19" t="n">
-        <v>1.36213131675411</v>
+        <v>0.1420175969982094</v>
       </c>
       <c r="M19" t="n">
-        <v>0.576850330810838</v>
+        <v>0.2721278417698201</v>
       </c>
       <c r="N19" t="n">
-        <v>1.01020751553992</v>
+        <v>1.01563423561588</v>
       </c>
       <c r="O19" t="n">
-        <v>0.6014080436382582</v>
+        <v>0.283712887376252</v>
       </c>
       <c r="P19" t="n">
-        <v>284.2006897525237</v>
+        <v>87.20593326639164</v>
       </c>
       <c r="Q19" t="n">
-        <v>456.0621810589399</v>
+        <v>137.1798420859879</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>model_4_9_18</t>
+          <t>model_4_9_13</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0.9491371983222113</v>
+        <v>0.9889257497720851</v>
       </c>
       <c r="C20" t="n">
-        <v>0.7187004247221288</v>
+        <v>0.7533257123154451</v>
       </c>
       <c r="D20" t="n">
-        <v>0.7887439107269776</v>
+        <v>0.8894961698313538</v>
       </c>
       <c r="E20" t="n">
-        <v>-0.08814538910886216</v>
+        <v>0.9123742876981742</v>
       </c>
       <c r="F20" t="n">
-        <v>0.7035483895191498</v>
+        <v>0.9254357672183836</v>
       </c>
       <c r="G20" t="n">
-        <v>0.3401197890210398</v>
+        <v>0.07405356226630026</v>
       </c>
       <c r="H20" t="n">
-        <v>1.881051555148569</v>
+        <v>1.649512097577274</v>
       </c>
       <c r="I20" t="n">
-        <v>0.4421672670234896</v>
+        <v>0.3526624387658456</v>
       </c>
       <c r="J20" t="n">
-        <v>1.633335427248684</v>
+        <v>0.1101721978305031</v>
       </c>
       <c r="K20" t="n">
-        <v>1.037751260485595</v>
+        <v>0.2314173233379225</v>
       </c>
       <c r="L20" t="n">
-        <v>1.335540274121647</v>
+        <v>0.1420175969982094</v>
       </c>
       <c r="M20" t="n">
-        <v>0.583197898676804</v>
+        <v>0.2721278417698201</v>
       </c>
       <c r="N20" t="n">
-        <v>1.010433395215957</v>
+        <v>1.01563423561588</v>
       </c>
       <c r="O20" t="n">
-        <v>0.6080258406095553</v>
+        <v>0.283712887376252</v>
       </c>
       <c r="P20" t="n">
-        <v>284.1569148055443</v>
+        <v>87.20593326639164</v>
       </c>
       <c r="Q20" t="n">
-        <v>456.0184061119606</v>
+        <v>137.1798420859879</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
         <is>
-          <t>model_4_9_19</t>
+          <t>model_4_9_23</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0.9481141138569409</v>
+        <v>0.9889257497720851</v>
       </c>
       <c r="C21" t="n">
-        <v>0.7177460712576903</v>
+        <v>0.7533257123154451</v>
       </c>
       <c r="D21" t="n">
-        <v>0.7827130148521368</v>
+        <v>0.8894961698313538</v>
       </c>
       <c r="E21" t="n">
-        <v>-0.1145893937050249</v>
+        <v>0.9123742876981742</v>
       </c>
       <c r="F21" t="n">
-        <v>0.696075870473583</v>
+        <v>0.9254357672183836</v>
       </c>
       <c r="G21" t="n">
-        <v>0.3469611595511739</v>
+        <v>0.07405356226630026</v>
       </c>
       <c r="H21" t="n">
-        <v>1.887433321159663</v>
+        <v>1.649512097577274</v>
       </c>
       <c r="I21" t="n">
-        <v>0.4547901682419024</v>
+        <v>0.3526624387658456</v>
       </c>
       <c r="J21" t="n">
-        <v>1.673028587719283</v>
+        <v>0.1101721978305031</v>
       </c>
       <c r="K21" t="n">
-        <v>1.063909377980593</v>
+        <v>0.2314173233379225</v>
       </c>
       <c r="L21" t="n">
-        <v>1.311518662223945</v>
+        <v>0.1420175969982094</v>
       </c>
       <c r="M21" t="n">
-        <v>0.5890340903132635</v>
+        <v>0.2721278417698201</v>
       </c>
       <c r="N21" t="n">
-        <v>1.010643258696012</v>
+        <v>1.01563423561588</v>
       </c>
       <c r="O21" t="n">
-        <v>0.614110491006561</v>
+        <v>0.283712887376252</v>
       </c>
       <c r="P21" t="n">
-        <v>284.1170848748587</v>
+        <v>87.20593326639164</v>
       </c>
       <c r="Q21" t="n">
-        <v>455.9785761812749</v>
+        <v>137.1798420859879</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
         <is>
-          <t>model_4_9_20</t>
+          <t>model_4_9_15</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0.9471675639223012</v>
+        <v>0.9889257497720851</v>
       </c>
       <c r="C22" t="n">
-        <v>0.7168693452521169</v>
+        <v>0.7533257123154451</v>
       </c>
       <c r="D22" t="n">
-        <v>0.7772286463872013</v>
+        <v>0.8894961698313538</v>
       </c>
       <c r="E22" t="n">
-        <v>-0.1384528233508389</v>
+        <v>0.9123742876981742</v>
       </c>
       <c r="F22" t="n">
-        <v>0.6893200319764693</v>
+        <v>0.9254357672183836</v>
       </c>
       <c r="G22" t="n">
-        <v>0.3532907433225715</v>
+        <v>0.07405356226630026</v>
       </c>
       <c r="H22" t="n">
-        <v>1.893295991995885</v>
+        <v>1.649512097577274</v>
       </c>
       <c r="I22" t="n">
-        <v>0.4662691661909572</v>
+        <v>0.3526624387658456</v>
       </c>
       <c r="J22" t="n">
-        <v>1.708848235944861</v>
+        <v>0.1101721978305031</v>
       </c>
       <c r="K22" t="n">
-        <v>1.087558701067909</v>
+        <v>0.2314173233379225</v>
       </c>
       <c r="L22" t="n">
-        <v>1.289820591430578</v>
+        <v>0.1420175969982094</v>
       </c>
       <c r="M22" t="n">
-        <v>0.5943826573198208</v>
+        <v>0.2721278417698201</v>
       </c>
       <c r="N22" t="n">
-        <v>1.010837422785169</v>
+        <v>1.01563423561588</v>
       </c>
       <c r="O22" t="n">
-        <v>0.6196867575836474</v>
+        <v>0.283712887376252</v>
       </c>
       <c r="P22" t="n">
-        <v>284.0809278511514</v>
+        <v>87.20593326639164</v>
       </c>
       <c r="Q22" t="n">
-        <v>455.9424191575677</v>
+        <v>137.1798420859879</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
         <is>
-          <t>model_4_9_21</t>
+          <t>model_4_9_10</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0.946295020916621</v>
+        <v>0.9889257931480819</v>
       </c>
       <c r="C23" t="n">
-        <v>0.7160660526059477</v>
+        <v>0.7533257087924692</v>
       </c>
       <c r="D23" t="n">
-        <v>0.7722488060816344</v>
+        <v>0.8894965207798687</v>
       </c>
       <c r="E23" t="n">
-        <v>-0.1599779939890771</v>
+        <v>0.9123753005216911</v>
       </c>
       <c r="F23" t="n">
-        <v>0.6832163414813502</v>
+        <v>0.925436154434539</v>
       </c>
       <c r="G23" t="n">
-        <v>0.3591254424192457</v>
+        <v>0.07405327221081029</v>
       </c>
       <c r="H23" t="n">
-        <v>1.89866761361964</v>
+        <v>1.64951212113543</v>
       </c>
       <c r="I23" t="n">
-        <v>0.4766921669465957</v>
+        <v>0.3526613187471188</v>
       </c>
       <c r="J23" t="n">
-        <v>1.741158094657584</v>
+        <v>0.1101709244029903</v>
       </c>
       <c r="K23" t="n">
-        <v>1.10892513080209</v>
+        <v>0.2314161215750546</v>
       </c>
       <c r="L23" t="n">
-        <v>1.270231470503743</v>
+        <v>0.1420190602179398</v>
       </c>
       <c r="M23" t="n">
-        <v>0.5992707588554991</v>
+        <v>0.2721273088295445</v>
       </c>
       <c r="N23" t="n">
-        <v>1.011016405965821</v>
+        <v>1.015634174379178</v>
       </c>
       <c r="O23" t="n">
-        <v>0.6247829557214647</v>
+        <v>0.2837123317476055</v>
       </c>
       <c r="P23" t="n">
-        <v>284.0481670594936</v>
+        <v>87.20594110007443</v>
       </c>
       <c r="Q23" t="n">
-        <v>455.9096583659099</v>
+        <v>137.1798499196707</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>model_4_9_22</t>
+          <t>model_4_9_11</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0.9454932732416779</v>
+        <v>0.988925788311119</v>
       </c>
       <c r="C24" t="n">
-        <v>0.7153315976458798</v>
+        <v>0.7533257026815174</v>
       </c>
       <c r="D24" t="n">
-        <v>0.7677309780998641</v>
+        <v>0.889496598945279</v>
       </c>
       <c r="E24" t="n">
-        <v>-0.1793821939551343</v>
+        <v>0.9123748291480348</v>
       </c>
       <c r="F24" t="n">
-        <v>0.677705520116614</v>
+        <v>0.9254361007672358</v>
       </c>
       <c r="G24" t="n">
-        <v>0.3644867328132993</v>
+        <v>0.07405330455560344</v>
       </c>
       <c r="H24" t="n">
-        <v>1.903578917319469</v>
+        <v>1.649512161999392</v>
       </c>
       <c r="I24" t="n">
-        <v>0.4861481578174667</v>
+        <v>0.3526610692896642</v>
       </c>
       <c r="J24" t="n">
-        <v>1.770284319479373</v>
+        <v>0.110171517063185</v>
       </c>
       <c r="K24" t="n">
-        <v>1.128216177351946</v>
+        <v>0.2314162881367316</v>
       </c>
       <c r="L24" t="n">
-        <v>1.252549361041798</v>
+        <v>0.1420198772288301</v>
       </c>
       <c r="M24" t="n">
-        <v>0.6037273662948361</v>
+        <v>0.2721273682590625</v>
       </c>
       <c r="N24" t="n">
-        <v>1.011180867027348</v>
+        <v>1.015634181207832</v>
       </c>
       <c r="O24" t="n">
-        <v>0.6294292901659436</v>
+        <v>0.2837123937071612</v>
       </c>
       <c r="P24" t="n">
-        <v>284.0185302530265</v>
+        <v>87.20594022651989</v>
       </c>
       <c r="Q24" t="n">
-        <v>455.8800215594428</v>
+        <v>137.1798490461161</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
         <is>
-          <t>model_4_9_23</t>
+          <t>model_4_9_1</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0.9447584223624692</v>
+        <v>0.9889262101614561</v>
       </c>
       <c r="C25" t="n">
-        <v>0.714661377588281</v>
+        <v>0.75332557799341</v>
       </c>
       <c r="D25" t="n">
-        <v>0.7636356707085556</v>
+        <v>0.8894988604972529</v>
       </c>
       <c r="E25" t="n">
-        <v>-0.1968695948689267</v>
+        <v>0.9123831841004009</v>
       </c>
       <c r="F25" t="n">
-        <v>0.6727319086769616</v>
+        <v>0.9254389542574514</v>
       </c>
       <c r="G25" t="n">
-        <v>0.3694006840262443</v>
+        <v>0.07405048364045702</v>
       </c>
       <c r="H25" t="n">
-        <v>1.908060681930711</v>
+        <v>1.64951299578934</v>
       </c>
       <c r="I25" t="n">
-        <v>0.4947197965478216</v>
+        <v>0.3526538517621512</v>
       </c>
       <c r="J25" t="n">
-        <v>1.796533377490261</v>
+        <v>0.1101610123444129</v>
       </c>
       <c r="K25" t="n">
-        <v>1.145626679970883</v>
+        <v>0.2314074320532821</v>
       </c>
       <c r="L25" t="n">
-        <v>1.236595073038678</v>
+        <v>0.1420269337238131</v>
       </c>
       <c r="M25" t="n">
-        <v>0.6077834186832052</v>
+        <v>0.2721221851309757</v>
       </c>
       <c r="N25" t="n">
-        <v>1.011331605669237</v>
+        <v>1.015633585654415</v>
       </c>
       <c r="O25" t="n">
-        <v>0.6336580171016715</v>
+        <v>0.2837069899225811</v>
       </c>
       <c r="P25" t="n">
-        <v>283.9917467189927</v>
+        <v>87.20601641404166</v>
       </c>
       <c r="Q25" t="n">
-        <v>455.8532380254089</v>
+        <v>137.1799252336379</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
         <is>
-          <t>model_4_9_24</t>
+          <t>model_4_9_0</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0.9440864544217717</v>
+        <v>0.9889265055082221</v>
       </c>
       <c r="C26" t="n">
-        <v>0.714050733856435</v>
+        <v>0.7533255727922722</v>
       </c>
       <c r="D26" t="n">
-        <v>0.7599275544605982</v>
+        <v>0.8895006605890959</v>
       </c>
       <c r="E26" t="n">
-        <v>-0.2126254302202477</v>
+        <v>0.9123881971311828</v>
       </c>
       <c r="F26" t="n">
-        <v>0.6682453638560313</v>
+        <v>0.9254408951872343</v>
       </c>
       <c r="G26" t="n">
-        <v>0.3738941367398161</v>
+        <v>0.07404850865527215</v>
       </c>
       <c r="H26" t="n">
-        <v>1.912144059377321</v>
+        <v>1.649513030569373</v>
       </c>
       <c r="I26" t="n">
-        <v>0.5024810290538619</v>
+        <v>0.3526481069406517</v>
       </c>
       <c r="J26" t="n">
-        <v>1.820183309128794</v>
+        <v>0.1101547094385131</v>
       </c>
       <c r="K26" t="n">
-        <v>1.161332169091328</v>
+        <v>0.2314014081895824</v>
       </c>
       <c r="L26" t="n">
-        <v>1.22220687759302</v>
+        <v>0.1420299908995968</v>
       </c>
       <c r="M26" t="n">
-        <v>0.6114688354608239</v>
+        <v>0.2721185562494263</v>
       </c>
       <c r="N26" t="n">
-        <v>1.011469445246816</v>
+        <v>1.015633168694275</v>
       </c>
       <c r="O26" t="n">
-        <v>0.6375003297013778</v>
+        <v>0.2837032065520312</v>
       </c>
       <c r="P26" t="n">
-        <v>283.9675651569623</v>
+        <v>87.20606975634072</v>
       </c>
       <c r="Q26" t="n">
-        <v>455.8290564633786</v>
+        <v>137.179978575937</v>
       </c>
     </row>
   </sheetData>
